--- a/CastReporting.Reporting.Core/Templates/Application/Compliance reports/OWASP-2013 Full Detailed Report.xlsx
+++ b/CastReporting.Reporting.Core/Templates/Application/Compliance reports/OWASP-2013 Full Detailed Report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_Dev\ReportGenerator\CAST-ReportGenerator\CastReporting.Reporting.Core\Templates\Application\Compliance reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABF325AF-8D77-4364-A4AA-23972F5EDBA8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52B19B4B-BB35-4E65-B7A9-BFA3420A34E2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -107,9 +107,6 @@
     <t>RepGen:TABLE;QUALITY_STANDARDS_EVOLUTION;STD=OWASP-2013</t>
   </si>
   <si>
-    <t>RepGen:TABLE;QUALITY_TAGS_RULES_EVOLUTION;STD=A1-2013</t>
-  </si>
-  <si>
     <t>CAST findings for A1 - Injection</t>
   </si>
   <si>
@@ -128,12 +125,6 @@
     <t>RepGen:TABLE;LIST_RULES_VIOLATIONS_BOOKMARKS;METRICS=A2-2013,COUNT=-1</t>
   </si>
   <si>
-    <t>RepGen:TABLE;QUALITY_TAGS_RULES_EVOLUTION;STD=A2-2013</t>
-  </si>
-  <si>
-    <t>RepGen:TABLE;QUALITY_TAGS_RULES_EVOLUTION;STD=A3-2013</t>
-  </si>
-  <si>
     <t>RepGen:TABLE;LIST_RULES_VIOLATIONS_BOOKMARKS;METRICS=A3-2013,COUNT=-1</t>
   </si>
   <si>
@@ -146,9 +137,6 @@
     <t>RepGen:TABLE;LIST_RULES_VIOLATIONS_BOOKMARKS;METRICS=A4-2013,COUNT=-1</t>
   </si>
   <si>
-    <t>RepGen:TABLE;QUALITY_TAGS_RULES_EVOLUTION;STD=A4-2013</t>
-  </si>
-  <si>
     <t xml:space="preserve">CAST findings details for A4- Insecure Direct Object References </t>
   </si>
   <si>
@@ -158,9 +146,6 @@
     <t>RepGen:TABLE;LIST_RULES_VIOLATIONS_BOOKMARKS;METRICS=A5-2013,COUNT=-1</t>
   </si>
   <si>
-    <t>RepGen:TABLE;QUALITY_TAGS_RULES_EVOLUTION;STD=A5-2013</t>
-  </si>
-  <si>
     <t xml:space="preserve">CAST findings for A5 – Security Misconfiguration </t>
   </si>
   <si>
@@ -170,9 +155,6 @@
     <t>RepGen:TABLE;LIST_RULES_VIOLATIONS_BOOKMARKS;METRICS=A6-2013,COUNT=-1</t>
   </si>
   <si>
-    <t>RepGen:TABLE;QUALITY_TAGS_RULES_EVOLUTION;STD=A6-2013</t>
-  </si>
-  <si>
     <t xml:space="preserve">CAST findings for A6 – Sensitive Data Exposure </t>
   </si>
   <si>
@@ -182,9 +164,6 @@
     <t>RepGen:TABLE;LIST_RULES_VIOLATIONS_BOOKMARKS;METRICS=A7-2013,COUNT=-1</t>
   </si>
   <si>
-    <t>RepGen:TABLE;QUALITY_TAGS_RULES_EVOLUTION;STD=A7-2013</t>
-  </si>
-  <si>
     <t xml:space="preserve">CAST findings for A7 – Missing Function Level Access Control </t>
   </si>
   <si>
@@ -194,18 +173,12 @@
     <t>RepGen:TABLE;LIST_RULES_VIOLATIONS_BOOKMARKS;METRICS=A8-2013,COUNT=-1</t>
   </si>
   <si>
-    <t>RepGen:TABLE;QUALITY_TAGS_RULES_EVOLUTION;STD=A8-2013</t>
-  </si>
-  <si>
     <t xml:space="preserve">CAST findings for A8 – Cross site Request Forgery </t>
   </si>
   <si>
     <t xml:space="preserve">CAST findings details for A8 – Cross site Request Forgery </t>
   </si>
   <si>
-    <t>RepGen:TABLE;QUALITY_TAGS_RULES_EVOLUTION;STD=A9-2013</t>
-  </si>
-  <si>
     <t>RepGen:TABLE;LIST_RULES_VIOLATIONS_BOOKMARKS;METRICS=A9-2013,COUNT=-1</t>
   </si>
   <si>
@@ -218,13 +191,40 @@
     <t>RepGen:TABLE;LIST_RULES_VIOLATIONS_BOOKMARKS;METRICS=A10-2013,COUNT=-1</t>
   </si>
   <si>
-    <t>RepGen:TABLE;QUALITY_TAGS_RULES_EVOLUTION;STD=A10-2013</t>
-  </si>
-  <si>
     <t xml:space="preserve">CAST findings for A10 – Using Unvalidated Redirects &amp; Forwards </t>
   </si>
   <si>
     <t xml:space="preserve">CAST findings details for A10 – Using Unvalidated Redirects &amp; Forwards </t>
+  </si>
+  <si>
+    <t>RepGen:TABLE;RULES_LIST_STATISTICS_RATIO;METRICS=A1-2013</t>
+  </si>
+  <si>
+    <t>RepGen:TABLE;RULES_LIST_STATISTICS_RATIO;METRICS=A2-2013</t>
+  </si>
+  <si>
+    <t>RepGen:TABLE;RULES_LIST_STATISTICS_RATIO;METRICS=A3-2013</t>
+  </si>
+  <si>
+    <t>RepGen:TABLE;RULES_LIST_STATISTICS_RATIO;METRICS=A4-2013</t>
+  </si>
+  <si>
+    <t>RepGen:TABLE;RULES_LIST_STATISTICS_RATIO;METRICS=A5-2013</t>
+  </si>
+  <si>
+    <t>RepGen:TABLE;RULES_LIST_STATISTICS_RATIO;METRICS=A6-2013</t>
+  </si>
+  <si>
+    <t>RepGen:TABLE;RULES_LIST_STATISTICS_RATIO;METRICS=A7-2013</t>
+  </si>
+  <si>
+    <t>RepGen:TABLE;RULES_LIST_STATISTICS_RATIO;METRICS=A8-2013</t>
+  </si>
+  <si>
+    <t>RepGen:TABLE;RULES_LIST_STATISTICS_RATIO;METRICS=A9-2013</t>
+  </si>
+  <si>
+    <t>RepGen:TABLE;RULES_LIST_STATISTICS_RATIO;METRICS=A10-2013</t>
   </si>
 </sst>
 </file>
@@ -881,7 +881,7 @@
   <dimension ref="B1:O13"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -996,7 +996,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E7E084B-1D41-49A1-AAE8-65E5FD99EAE8}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1009,12 +1011,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>33</v>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -1037,12 +1039,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>32</v>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
@@ -1055,7 +1057,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6184CFD3-505D-44C0-8258-50A02CF4F83B}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1068,12 +1072,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>37</v>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -1096,12 +1100,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>36</v>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -1114,7 +1118,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40429C24-E986-40B1-9C54-93D6527149C0}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1127,12 +1133,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>41</v>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -1145,7 +1151,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43EB8EA9-CBE4-4B5D-A35C-7E148B322568}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1155,12 +1163,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>40</v>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>
@@ -1174,7 +1182,7 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1188,12 +1196,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>45</v>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -1218,12 +1226,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>44</v>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1236,7 +1244,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BBA7DBA-4263-4117-BE33-EEC6555217AC}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1249,12 +1259,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>48</v>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -1277,12 +1287,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>49</v>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -1310,12 +1320,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
         <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -1329,7 +1339,7 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1343,12 +1353,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>53</v>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -1373,12 +1383,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>52</v>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -1403,12 +1413,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
         <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -1422,7 +1432,7 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1436,12 +1446,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>23</v>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>47</v>
       </c>
     </row>
   </sheetData>
@@ -1466,12 +1476,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -1485,7 +1495,7 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1499,12 +1509,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
         <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -1529,12 +1539,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>25</v>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -1548,7 +1558,7 @@
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1562,12 +1572,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>29</v>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>49</v>
       </c>
     </row>
   </sheetData>
@@ -1590,12 +1600,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>28</v>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/CastReporting.Reporting.Core/Templates/Application/Compliance reports/OWASP-2013 Full Detailed Report.xlsx
+++ b/CastReporting.Reporting.Core/Templates/Application/Compliance reports/OWASP-2013 Full Detailed Report.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_Dev\ReportGenerator\CAST-ReportGenerator\CastReporting.Reporting.Core\Templates\Application\Compliance reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52B19B4B-BB35-4E65-B7A9-BFA3420A34E2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14CF5F23-D41B-485C-B56D-1C0A6D59DC21}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="76">
   <si>
     <t>Application Name:</t>
   </si>
@@ -89,12 +89,6 @@
     <t>RepGen:TEXT;METRIC_TECHNICAL_DEBT</t>
   </si>
   <si>
-    <t>RepGen:TABLE;TECHNICAL_SIZING</t>
-  </si>
-  <si>
-    <t>RepGen:TABLE;TECHNO_LOC</t>
-  </si>
-  <si>
     <t>Application characteristics</t>
   </si>
   <si>
@@ -104,15 +98,9 @@
     <t>Findings summary for CAST under OWASP-2013</t>
   </si>
   <si>
-    <t>RepGen:TABLE;QUALITY_STANDARDS_EVOLUTION;STD=OWASP-2013</t>
-  </si>
-  <si>
     <t>CAST findings for A1 - Injection</t>
   </si>
   <si>
-    <t>RepGen:TABLE;LIST_RULES_VIOLATIONS_BOOKMARKS;METRICS=A1-2013,COUNT=-1</t>
-  </si>
-  <si>
     <t>CAST findings details for A1 - Injection</t>
   </si>
   <si>
@@ -122,109 +110,181 @@
     <t xml:space="preserve">CAST findings details for A2- Broken Authentication &amp; Session Management </t>
   </si>
   <si>
-    <t>RepGen:TABLE;LIST_RULES_VIOLATIONS_BOOKMARKS;METRICS=A2-2013,COUNT=-1</t>
-  </si>
-  <si>
-    <t>RepGen:TABLE;LIST_RULES_VIOLATIONS_BOOKMARKS;METRICS=A3-2013,COUNT=-1</t>
-  </si>
-  <si>
     <t xml:space="preserve">CAST findings details for A3-Cross-site Scripting </t>
   </si>
   <si>
     <t xml:space="preserve">CAST findings for A3-Cross-site Scripting </t>
   </si>
   <si>
-    <t>RepGen:TABLE;LIST_RULES_VIOLATIONS_BOOKMARKS;METRICS=A4-2013,COUNT=-1</t>
-  </si>
-  <si>
     <t xml:space="preserve">CAST findings details for A4- Insecure Direct Object References </t>
   </si>
   <si>
     <t xml:space="preserve">CAST findings for A4- Insecure Direct Object References </t>
   </si>
   <si>
-    <t>RepGen:TABLE;LIST_RULES_VIOLATIONS_BOOKMARKS;METRICS=A5-2013,COUNT=-1</t>
-  </si>
-  <si>
     <t xml:space="preserve">CAST findings for A5 – Security Misconfiguration </t>
   </si>
   <si>
     <t xml:space="preserve">CAST findings details for A5 – Security Misconfiguration </t>
   </si>
   <si>
-    <t>RepGen:TABLE;LIST_RULES_VIOLATIONS_BOOKMARKS;METRICS=A6-2013,COUNT=-1</t>
-  </si>
-  <si>
     <t xml:space="preserve">CAST findings for A6 – Sensitive Data Exposure </t>
   </si>
   <si>
     <t xml:space="preserve">CAST findings details for A6 – Sensitive Data Exposure </t>
   </si>
   <si>
-    <t>RepGen:TABLE;LIST_RULES_VIOLATIONS_BOOKMARKS;METRICS=A7-2013,COUNT=-1</t>
-  </si>
-  <si>
     <t xml:space="preserve">CAST findings for A7 – Missing Function Level Access Control </t>
   </si>
   <si>
     <t xml:space="preserve">CAST findings details for A7 – Missing Function Level Access Control </t>
   </si>
   <si>
-    <t>RepGen:TABLE;LIST_RULES_VIOLATIONS_BOOKMARKS;METRICS=A8-2013,COUNT=-1</t>
-  </si>
-  <si>
     <t xml:space="preserve">CAST findings for A8 – Cross site Request Forgery </t>
   </si>
   <si>
     <t xml:space="preserve">CAST findings details for A8 – Cross site Request Forgery </t>
   </si>
   <si>
-    <t>RepGen:TABLE;LIST_RULES_VIOLATIONS_BOOKMARKS;METRICS=A9-2013,COUNT=-1</t>
-  </si>
-  <si>
     <t xml:space="preserve">CAST findings details for A9 – Using Components with known vulnerabilities </t>
   </si>
   <si>
     <t xml:space="preserve">CAST findings for A9 – Using Components with known vulnerabilities </t>
   </si>
   <si>
-    <t>RepGen:TABLE;LIST_RULES_VIOLATIONS_BOOKMARKS;METRICS=A10-2013,COUNT=-1</t>
-  </si>
-  <si>
     <t xml:space="preserve">CAST findings for A10 – Using Unvalidated Redirects &amp; Forwards </t>
   </si>
   <si>
     <t xml:space="preserve">CAST findings details for A10 – Using Unvalidated Redirects &amp; Forwards </t>
   </si>
   <si>
-    <t>RepGen:TABLE;RULES_LIST_STATISTICS_RATIO;METRICS=A1-2013</t>
-  </si>
-  <si>
-    <t>RepGen:TABLE;RULES_LIST_STATISTICS_RATIO;METRICS=A2-2013</t>
-  </si>
-  <si>
-    <t>RepGen:TABLE;RULES_LIST_STATISTICS_RATIO;METRICS=A3-2013</t>
-  </si>
-  <si>
-    <t>RepGen:TABLE;RULES_LIST_STATISTICS_RATIO;METRICS=A4-2013</t>
-  </si>
-  <si>
-    <t>RepGen:TABLE;RULES_LIST_STATISTICS_RATIO;METRICS=A5-2013</t>
-  </si>
-  <si>
-    <t>RepGen:TABLE;RULES_LIST_STATISTICS_RATIO;METRICS=A6-2013</t>
-  </si>
-  <si>
-    <t>RepGen:TABLE;RULES_LIST_STATISTICS_RATIO;METRICS=A7-2013</t>
-  </si>
-  <si>
-    <t>RepGen:TABLE;RULES_LIST_STATISTICS_RATIO;METRICS=A8-2013</t>
-  </si>
-  <si>
-    <t>RepGen:TABLE;RULES_LIST_STATISTICS_RATIO;METRICS=A9-2013</t>
-  </si>
-  <si>
-    <t>RepGen:TABLE;RULES_LIST_STATISTICS_RATIO;METRICS=A10-2013</t>
+    <t>Technology</t>
+  </si>
+  <si>
+    <t>Lines of Code</t>
+  </si>
+  <si>
+    <t>RepGen:TABLE;TECHNO_LOC;HEADER=NO</t>
+  </si>
+  <si>
+    <t>Characteristic</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>RepGen:TABLE;TECHNICAL_SIZING;HEADER=NO</t>
+  </si>
+  <si>
+    <t>Quality Standard</t>
+  </si>
+  <si>
+    <t>Total Vulnerabilities</t>
+  </si>
+  <si>
+    <t>Added Vulnerabilities</t>
+  </si>
+  <si>
+    <t>Removed Vulnerabilities</t>
+  </si>
+  <si>
+    <t>Rules</t>
+  </si>
+  <si>
+    <t>Rationale</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Remediation</t>
+  </si>
+  <si>
+    <t>RepGen:TABLE;RULES_LIST_STATISTICS_RATIO;METRICS=A1-2013,DESC=true,HEADER=NO</t>
+  </si>
+  <si>
+    <t>Rule Name</t>
+  </si>
+  <si>
+    <t>Object Name</t>
+  </si>
+  <si>
+    <t>Object Type</t>
+  </si>
+  <si>
+    <t>Violation Status</t>
+  </si>
+  <si>
+    <t>Associated Value</t>
+  </si>
+  <si>
+    <t>File Path</t>
+  </si>
+  <si>
+    <t>Start Line</t>
+  </si>
+  <si>
+    <t>End Line</t>
+  </si>
+  <si>
+    <t>RepGen:TABLE;LIST_RULES_VIOLATIONS_BOOKMARKS_TABLE;METRICS=A1-2013,COUNT=-1,HEADER=NO</t>
+  </si>
+  <si>
+    <t>RepGen:TABLE;RULES_LIST_STATISTICS_RATIO;METRICS=A2-2013,DESC=true,HEADER=NO</t>
+  </si>
+  <si>
+    <t>RepGen:TABLE;LIST_RULES_VIOLATIONS_BOOKMARKS_TABLE;METRICS=A2-2013,COUNT=-1,HEADER=NO</t>
+  </si>
+  <si>
+    <t>RepGen:TABLE;RULES_LIST_STATISTICS_RATIO;METRICS=A3-2013,DESC=true,HEADER=NO</t>
+  </si>
+  <si>
+    <t>RepGen:TABLE;LIST_RULES_VIOLATIONS_BOOKMARKS_TABLE;METRICS=A3-2013,COUNT=-1,HEADER=NO</t>
+  </si>
+  <si>
+    <t>RepGen:TABLE;RULES_LIST_STATISTICS_RATIO;METRICS=A4-2013,DESC=true,HEADER=NO</t>
+  </si>
+  <si>
+    <t>RepGen:TABLE;LIST_RULES_VIOLATIONS_BOOKMARKS_TABLE;METRICS=A4-2013,COUNT=-1,HEADER=NO</t>
+  </si>
+  <si>
+    <t>RepGen:TABLE;RULES_LIST_STATISTICS_RATIO;METRICS=A5-2013,DESC=true,HEADER=NO</t>
+  </si>
+  <si>
+    <t>RepGen:TABLE;LIST_RULES_VIOLATIONS_BOOKMARKS_TABLE;METRICS=A5-2013,COUNT=-1,HEADER=NO</t>
+  </si>
+  <si>
+    <t>RepGen:TABLE;RULES_LIST_STATISTICS_RATIO;METRICS=A6-2013,DESC=true,HEADER=NO</t>
+  </si>
+  <si>
+    <t>RepGen:TABLE;LIST_RULES_VIOLATIONS_BOOKMARKS_TABLE;METRICS=A6-2013,COUNT=-1,HEADER=NO</t>
+  </si>
+  <si>
+    <t>RepGen:TABLE;RULES_LIST_STATISTICS_RATIO;METRICS=A7-2013,DESC=true,HEADER=NO</t>
+  </si>
+  <si>
+    <t>RepGen:TABLE;LIST_RULES_VIOLATIONS_BOOKMARKS_TABLE;METRICS=A7-2013,COUNT=-1,HEADER=NO</t>
+  </si>
+  <si>
+    <t>RepGen:TABLE;RULES_LIST_STATISTICS_RATIO;METRICS=A8-2013,DESC=true,HEADER=NO</t>
+  </si>
+  <si>
+    <t>RepGen:TABLE;LIST_RULES_VIOLATIONS_BOOKMARKS_TABLE;METRICS=A8-2013,COUNT=-1,HEADER=NO</t>
+  </si>
+  <si>
+    <t>RepGen:TABLE;RULES_LIST_STATISTICS_RATIO;METRICS=A9-2013,DESC=true,HEADER=NO</t>
+  </si>
+  <si>
+    <t>RepGen:TABLE;LIST_RULES_VIOLATIONS_BOOKMARKS_TABLE;METRICS=A9-2013,COUNT=-1,HEADER=NO</t>
+  </si>
+  <si>
+    <t>RepGen:TABLE;RULES_LIST_STATISTICS_RATIO;METRICS=A10-2013,DESC=true,HEADER=NO</t>
+  </si>
+  <si>
+    <t>RepGen:TABLE;LIST_RULES_VIOLATIONS_BOOKMARKS_TABLE;METRICS=A10-2013,COUNT=-1,HEADER=NO</t>
+  </si>
+  <si>
+    <t>RepGen:TABLE;QUALITY_STANDARDS_EVOLUTION;STD=OWASP-2013,HEADER=NO</t>
   </si>
 </sst>
 </file>
@@ -431,7 +491,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -487,20 +547,24 @@
     <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -545,7 +609,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>432089</xdr:colOff>
+      <xdr:colOff>217344</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>245918</xdr:rowOff>
     </xdr:to>
@@ -878,10 +942,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:O13"/>
+  <dimension ref="B1:O15"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -889,8 +953,8 @@
     <col min="1" max="1" width="6.5546875" customWidth="1"/>
     <col min="2" max="2" width="75.33203125" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="4" width="18.33203125" customWidth="1"/>
-    <col min="5" max="5" width="11.88671875" customWidth="1"/>
+    <col min="4" max="4" width="17.33203125" customWidth="1"/>
+    <col min="5" max="5" width="15" customWidth="1"/>
     <col min="6" max="6" width="16.109375" customWidth="1"/>
     <col min="7" max="7" width="19.44140625" customWidth="1"/>
     <col min="8" max="8" width="10.5546875" bestFit="1" customWidth="1"/>
@@ -907,12 +971,12 @@
       <c r="E1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
     </row>
     <row r="2" spans="2:15" ht="23.4" x14ac:dyDescent="0.3">
       <c r="B2" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="2"/>
@@ -921,13 +985,13 @@
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="22" t="s">
+      <c r="B3" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="23"/>
-      <c r="D3" s="11" t="s">
+      <c r="C3" s="11" t="s">
         <v>5</v>
       </c>
+      <c r="D3" s="11"/>
       <c r="E3" s="12"/>
       <c r="F3" s="9" t="s">
         <v>4</v>
@@ -937,13 +1001,13 @@
       </c>
     </row>
     <row r="4" spans="2:15" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="25"/>
-      <c r="D4" s="4" t="s">
+      <c r="C4" s="4" t="s">
         <v>8</v>
       </c>
+      <c r="D4" s="4"/>
       <c r="E4" s="13"/>
       <c r="F4" s="7" t="s">
         <v>2</v>
@@ -957,34 +1021,67 @@
     </row>
     <row r="6" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B6" s="18" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" t="s">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="C7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="24"/>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="C8" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
-        <v>10</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="D9" s="24"/>
       <c r="N9" s="17"/>
       <c r="O9" s="16"/>
     </row>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B12" s="19" t="s">
-        <v>14</v>
-      </c>
-    </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B13" t="s">
-        <v>15</v>
-      </c>
+      <c r="B13" s="19" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="2:15" ht="34.200000000000003" x14ac:dyDescent="0.3">
+      <c r="B14" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="E14" s="25" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>75</v>
+      </c>
+      <c r="C15" s="24"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="24"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="1">
     <mergeCell ref="F1:G1"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="B4:C4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -994,30 +1091,61 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E7E084B-1D41-49A1-AAE8-65E5FD99EAE8}">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="88.21875" customWidth="1"/>
-    <col min="2" max="2" width="24.5546875" customWidth="1"/>
-    <col min="3" max="3" width="27.6640625" customWidth="1"/>
-    <col min="4" max="4" width="23.5546875" customWidth="1"/>
-    <col min="5" max="5" width="15.21875" customWidth="1"/>
+    <col min="1" max="1" width="76.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="68.77734375" customWidth="1"/>
+    <col min="6" max="6" width="60.6640625" customWidth="1"/>
+    <col min="7" max="7" width="71" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>50</v>
-      </c>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" s="20" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1027,24 +1155,58 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60019302-308A-442F-B9EA-3F649E847332}">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="175.21875" customWidth="1"/>
-    <col min="2" max="2" width="12.88671875" customWidth="1"/>
+    <col min="1" max="1" width="89.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.21875" customWidth="1"/>
+    <col min="3" max="3" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="53.44140625" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>28</v>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="G2" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="H2" s="20" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -1055,30 +1217,61 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6184CFD3-505D-44C0-8258-50A02CF4F83B}">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="88.21875" customWidth="1"/>
-    <col min="2" max="2" width="24.5546875" customWidth="1"/>
-    <col min="3" max="3" width="27.6640625" customWidth="1"/>
-    <col min="4" max="4" width="23.5546875" customWidth="1"/>
-    <col min="5" max="5" width="15.21875" customWidth="1"/>
+    <col min="1" max="1" width="76.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="67.44140625" customWidth="1"/>
+    <col min="6" max="6" width="65.44140625" customWidth="1"/>
+    <col min="7" max="7" width="69" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>51</v>
-      </c>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" s="20" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1088,24 +1281,58 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68947EEB-3915-46CA-938B-9EF94DC11C5F}">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="175.21875" customWidth="1"/>
-    <col min="2" max="2" width="12.88671875" customWidth="1"/>
+    <col min="1" max="1" width="89.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="64.77734375" customWidth="1"/>
+    <col min="3" max="3" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="54.5546875" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>31</v>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="G2" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="H2" s="20" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -1116,30 +1343,61 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40429C24-E986-40B1-9C54-93D6527149C0}">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="88.21875" customWidth="1"/>
-    <col min="2" max="2" width="24.5546875" customWidth="1"/>
-    <col min="3" max="3" width="27.6640625" customWidth="1"/>
-    <col min="4" max="4" width="23.5546875" customWidth="1"/>
-    <col min="5" max="5" width="15.21875" customWidth="1"/>
+    <col min="1" max="1" width="76.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="74.33203125" customWidth="1"/>
+    <col min="6" max="6" width="64.109375" customWidth="1"/>
+    <col min="7" max="7" width="56.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>52</v>
-      </c>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" s="20" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1149,26 +1407,58 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43EB8EA9-CBE4-4B5D-A35C-7E148B322568}">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="175.21875" customWidth="1"/>
-    <col min="2" max="2" width="12.88671875" customWidth="1"/>
+    <col min="1" max="1" width="89.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="60.88671875" customWidth="1"/>
+    <col min="3" max="3" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="41" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>34</v>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="G2" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="H2" s="20" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -1179,30 +1469,61 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{398772F4-1EC0-446D-8794-6788C8DEC765}">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="88.21875" customWidth="1"/>
-    <col min="2" max="2" width="24.5546875" customWidth="1"/>
-    <col min="3" max="3" width="27.6640625" customWidth="1"/>
-    <col min="4" max="4" width="23.5546875" customWidth="1"/>
-    <col min="5" max="5" width="15.21875" customWidth="1"/>
+    <col min="1" max="1" width="76.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="69" customWidth="1"/>
+    <col min="6" max="6" width="62.109375" customWidth="1"/>
+    <col min="7" max="7" width="62.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>53</v>
-      </c>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" s="20" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1212,7 +1533,763 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E33A766-BEF1-4CAD-9B15-BE530492E644}">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="89.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="69.77734375" customWidth="1"/>
+    <col min="3" max="3" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="48.5546875" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="20" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="G2" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="H2" s="20" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BBA7DBA-4263-4117-BE33-EEC6555217AC}">
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="76.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="68.5546875" customWidth="1"/>
+    <col min="6" max="6" width="60.77734375" customWidth="1"/>
+    <col min="7" max="7" width="58.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="20" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" s="20" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B266AE1-FA0B-445E-816A-BF2547229BFC}">
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="89.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="53.88671875" customWidth="1"/>
+    <col min="3" max="3" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="45.77734375" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="20" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="G2" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="H2" s="20" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="76.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="60" customWidth="1"/>
+    <col min="6" max="6" width="52.109375" customWidth="1"/>
+    <col min="7" max="7" width="57.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="20" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" s="20" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C6BD317-0B61-41E3-8731-C4F691D2AAE1}">
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="77.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="60.109375" customWidth="1"/>
+    <col min="6" max="6" width="62.44140625" customWidth="1"/>
+    <col min="7" max="7" width="52.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="20" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" s="20" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="26" t="s">
+        <v>73</v>
+      </c>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{199839F1-7669-46C3-B6D9-CA145D3BFC5A}">
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="90.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="66.6640625" customWidth="1"/>
+    <col min="3" max="3" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="42.77734375" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="20" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="G2" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="H2" s="20" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00038B0F-4F74-4ACF-8A7F-FE15A067CF76}">
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="89.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="67.44140625" customWidth="1"/>
+    <col min="3" max="3" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="55.33203125" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="20" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="G2" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="H2" s="20" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C28B7BF-B505-460E-B5F5-CEF317C8DA21}">
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="76.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="61.6640625" customWidth="1"/>
+    <col min="6" max="6" width="58.77734375" customWidth="1"/>
+    <col min="7" max="7" width="53.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="20" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" s="20" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79D8D923-188E-4CB6-BF7E-B970F3C6E30D}">
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="89.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="68.77734375" customWidth="1"/>
+    <col min="3" max="3" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="52.33203125" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="20" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="G2" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="H2" s="20" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79906E84-4B34-4770-9305-4F2F91D7EFE1}">
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="76.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="65.77734375" customWidth="1"/>
+    <col min="6" max="6" width="63.6640625" customWidth="1"/>
+    <col min="7" max="7" width="65.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="20" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" s="20" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC577CBB-D408-44A0-A911-378AA65DFFF8}">
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="89.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="70.33203125" customWidth="1"/>
+    <col min="3" max="3" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="49" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="20" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="G2" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="H2" s="20" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBB41B1C-9240-4348-9FC9-45CED54B99B9}">
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="76.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="65.6640625" customWidth="1"/>
+    <col min="6" max="6" width="50.6640625" customWidth="1"/>
+    <col min="7" max="7" width="56.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="20" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" s="20" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="26" t="s">
+        <v>61</v>
+      </c>
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BEDA8E1-603E-4AFF-9626-7A5FC25447BA}">
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
@@ -1220,392 +2297,50 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="175.21875" customWidth="1"/>
-    <col min="2" max="2" width="12.88671875" customWidth="1"/>
+    <col min="1" max="1" width="89.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="63" customWidth="1"/>
+    <col min="3" max="3" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="47" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BBA7DBA-4263-4117-BE33-EEC6555217AC}">
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="88.21875" customWidth="1"/>
-    <col min="2" max="2" width="24.5546875" customWidth="1"/>
-    <col min="3" max="3" width="27.6640625" customWidth="1"/>
-    <col min="4" max="4" width="23.5546875" customWidth="1"/>
-    <col min="5" max="5" width="15.21875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B266AE1-FA0B-445E-816A-BF2547229BFC}">
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="175.21875" customWidth="1"/>
-    <col min="2" max="2" width="12.88671875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="88.21875" customWidth="1"/>
-    <col min="2" max="2" width="24.5546875" customWidth="1"/>
-    <col min="3" max="3" width="27.6640625" customWidth="1"/>
-    <col min="4" max="4" width="23.5546875" customWidth="1"/>
-    <col min="5" max="5" width="15.21875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C6BD317-0B61-41E3-8731-C4F691D2AAE1}">
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="88.21875" customWidth="1"/>
-    <col min="2" max="2" width="24.5546875" customWidth="1"/>
-    <col min="3" max="3" width="27.6640625" customWidth="1"/>
-    <col min="4" max="4" width="23.5546875" customWidth="1"/>
-    <col min="5" max="5" width="15.21875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{199839F1-7669-46C3-B6D9-CA145D3BFC5A}">
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="175.21875" customWidth="1"/>
-    <col min="2" max="2" width="12.88671875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00038B0F-4F74-4ACF-8A7F-FE15A067CF76}">
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="175.21875" customWidth="1"/>
-    <col min="2" max="2" width="12.88671875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C28B7BF-B505-460E-B5F5-CEF317C8DA21}">
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="88.21875" customWidth="1"/>
-    <col min="2" max="2" width="24.5546875" customWidth="1"/>
-    <col min="3" max="3" width="27.6640625" customWidth="1"/>
-    <col min="4" max="4" width="23.5546875" customWidth="1"/>
-    <col min="5" max="5" width="15.21875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79D8D923-188E-4CB6-BF7E-B970F3C6E30D}">
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="175.21875" customWidth="1"/>
-    <col min="2" max="2" width="12.88671875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79906E84-4B34-4770-9305-4F2F91D7EFE1}">
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="88.21875" customWidth="1"/>
-    <col min="2" max="2" width="24.5546875" customWidth="1"/>
-    <col min="3" max="3" width="27.6640625" customWidth="1"/>
-    <col min="4" max="4" width="23.5546875" customWidth="1"/>
-    <col min="5" max="5" width="15.21875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="20" t="s">
         <v>48</v>
       </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC577CBB-D408-44A0-A911-378AA65DFFF8}">
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="175.21875" customWidth="1"/>
-    <col min="2" max="2" width="12.88671875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBB41B1C-9240-4348-9FC9-45CED54B99B9}">
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="88.21875" customWidth="1"/>
-    <col min="2" max="2" width="24.5546875" customWidth="1"/>
-    <col min="3" max="3" width="27.6640625" customWidth="1"/>
-    <col min="4" max="4" width="23.5546875" customWidth="1"/>
-    <col min="5" max="5" width="15.21875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="B2" s="20" t="s">
         <v>49</v>
       </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8BEDA8E1-603E-4AFF-9626-7A5FC25447BA}">
-  <dimension ref="A1:A2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="175.21875" customWidth="1"/>
-    <col min="2" max="2" width="12.88671875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" s="20" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>25</v>
+      <c r="C2" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="G2" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="H2" s="20" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/CastReporting.Reporting.Core/Templates/Application/Compliance reports/OWASP-2013 Full Detailed Report.xlsx
+++ b/CastReporting.Reporting.Core/Templates/Application/Compliance reports/OWASP-2013 Full Detailed Report.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24430"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_Dev\ReportGenerator\CAST-ReportGenerator\CastReporting.Reporting.Core\Templates\Application\Compliance reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14CF5F23-D41B-485C-B56D-1C0A6D59DC21}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78A530DA-8985-4CDF-8B34-27B704321833}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="6" r:id="rId1"/>
@@ -65,9 +65,6 @@
     <t>Snapshot date:</t>
   </si>
   <si>
-    <t>Technical Debt:</t>
-  </si>
-  <si>
     <t>Generated on:</t>
   </si>
   <si>
@@ -86,9 +83,6 @@
     <t>RepGen:TEXT;LAST_SNAPSHOT_DATE</t>
   </si>
   <si>
-    <t>RepGen:TEXT;METRIC_TECHNICAL_DEBT</t>
-  </si>
-  <si>
     <t>Application characteristics</t>
   </si>
   <si>
@@ -285,6 +279,12 @@
   </si>
   <si>
     <t>RepGen:TABLE;QUALITY_STANDARDS_EVOLUTION;STD=OWASP-2013,HEADER=NO</t>
+  </si>
+  <si>
+    <t>ISO Technical Debt:</t>
+  </si>
+  <si>
+    <t>RepGen:TEXT;OMG_TECHNICAL_DEBT</t>
   </si>
 </sst>
 </file>
@@ -553,9 +553,6 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -565,6 +562,9 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -608,8 +608,8 @@
       <xdr:rowOff>55418</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>217344</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1291071</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>245918</xdr:rowOff>
     </xdr:to>
@@ -945,38 +945,38 @@
   <dimension ref="B1:O15"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.5546875" customWidth="1"/>
-    <col min="2" max="2" width="75.33203125" customWidth="1"/>
+    <col min="1" max="1" width="6.5703125" customWidth="1"/>
+    <col min="2" max="2" width="75.28515625" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="4" width="17.33203125" customWidth="1"/>
+    <col min="4" max="4" width="17.28515625" customWidth="1"/>
     <col min="5" max="5" width="15" customWidth="1"/>
-    <col min="6" max="6" width="16.109375" customWidth="1"/>
-    <col min="7" max="7" width="19.44140625" customWidth="1"/>
-    <col min="8" max="8" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.5546875" customWidth="1"/>
-    <col min="12" max="12" width="14.33203125" customWidth="1"/>
-    <col min="13" max="13" width="36.6640625" customWidth="1"/>
-    <col min="14" max="14" width="12.88671875" customWidth="1"/>
+    <col min="6" max="6" width="19.85546875" customWidth="1"/>
+    <col min="7" max="7" width="19.42578125" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.5703125" customWidth="1"/>
+    <col min="12" max="12" width="14.28515625" customWidth="1"/>
+    <col min="13" max="13" width="36.7109375" customWidth="1"/>
+    <col min="14" max="14" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D1" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-    </row>
-    <row r="2" spans="2:15" ht="23.4" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+    </row>
+    <row r="2" spans="2:15" ht="23.25" x14ac:dyDescent="0.25">
       <c r="B2" s="5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C2" s="6"/>
       <c r="D2" s="2"/>
@@ -984,100 +984,100 @@
       <c r="F2" s="2"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="21" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D3" s="11"/>
       <c r="E3" s="12"/>
       <c r="F3" s="9" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G3" s="15" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="2:15" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="2:15" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="22" t="s">
         <v>1</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="13"/>
       <c r="F4" s="7" t="s">
-        <v>2</v>
+        <v>74</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G5" s="14"/>
     </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B6" s="18" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C6" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
         <v>33</v>
       </c>
-      <c r="D6" s="18" t="s">
+      <c r="D7" s="23"/>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C8" s="18" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="C7" t="s">
+      <c r="D8" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="D7" s="24"/>
-    </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="C8" s="18" t="s">
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
         <v>36</v>
       </c>
-      <c r="D8" s="18" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="C9" t="s">
-        <v>38</v>
-      </c>
-      <c r="D9" s="24"/>
+      <c r="D9" s="23"/>
       <c r="N9" s="17"/>
       <c r="O9" s="16"/>
     </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B13" s="19" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="2:15" ht="34.200000000000003" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="2:15" ht="22.5" x14ac:dyDescent="0.25">
       <c r="B14" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="C14" s="25" t="s">
+      <c r="E14" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="D14" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="E14" s="25" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>75</v>
-      </c>
-      <c r="C15" s="24"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="24"/>
+        <v>73</v>
+      </c>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1097,55 +1097,55 @@
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="76.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="76.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="68.77734375" customWidth="1"/>
-    <col min="6" max="6" width="60.6640625" customWidth="1"/>
+    <col min="4" max="4" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="68.7109375" customWidth="1"/>
+    <col min="6" max="6" width="60.7109375" customWidth="1"/>
     <col min="7" max="7" width="71" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="F2" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="C2" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="D2" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="E2" s="20" t="s">
+      <c r="G2" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="F2" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="G2" s="20" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="26" t="s">
-        <v>63</v>
-      </c>
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
+    </row>
+    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="25" t="s">
+        <v>61</v>
+      </c>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1161,52 +1161,52 @@
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="89.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45.21875" customWidth="1"/>
-    <col min="3" max="3" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="53.44140625" customWidth="1"/>
-    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="89.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.28515625" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="53.42578125" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="D2" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="E2" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="F2" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="G2" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="F2" s="20" t="s">
+      <c r="H2" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="G2" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="H2" s="20" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -1223,55 +1223,55 @@
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="76.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="76.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="67.44140625" customWidth="1"/>
-    <col min="6" max="6" width="65.44140625" customWidth="1"/>
+    <col min="4" max="4" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="67.42578125" customWidth="1"/>
+    <col min="6" max="6" width="65.42578125" customWidth="1"/>
     <col min="7" max="7" width="69" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="F2" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="C2" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="D2" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="E2" s="20" t="s">
+      <c r="G2" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="F2" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="G2" s="20" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="26" t="s">
-        <v>65</v>
-      </c>
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
+    </row>
+    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="25" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1287,52 +1287,52 @@
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="89.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="64.77734375" customWidth="1"/>
-    <col min="3" max="3" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="54.5546875" customWidth="1"/>
-    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="89.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="64.7109375" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="54.5703125" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="D2" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="E2" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="F2" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="G2" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="F2" s="20" t="s">
+      <c r="H2" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="G2" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="H2" s="20" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -1349,55 +1349,55 @@
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="76.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="76.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="74.33203125" customWidth="1"/>
-    <col min="6" max="6" width="64.109375" customWidth="1"/>
-    <col min="7" max="7" width="56.21875" customWidth="1"/>
+    <col min="4" max="4" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="74.28515625" customWidth="1"/>
+    <col min="6" max="6" width="64.140625" customWidth="1"/>
+    <col min="7" max="7" width="56.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="F2" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="C2" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="D2" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="E2" s="20" t="s">
+      <c r="G2" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="F2" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="G2" s="20" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
+    </row>
+    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1413,52 +1413,52 @@
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="89.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="60.88671875" customWidth="1"/>
-    <col min="3" max="3" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="89.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="60.85546875" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="41" customWidth="1"/>
-    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="D2" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="E2" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="F2" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="G2" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="F2" s="20" t="s">
+      <c r="H2" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="G2" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="H2" s="20" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -1475,55 +1475,55 @@
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="76.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="76.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="69" customWidth="1"/>
-    <col min="6" max="6" width="62.109375" customWidth="1"/>
-    <col min="7" max="7" width="62.44140625" customWidth="1"/>
+    <col min="6" max="6" width="62.140625" customWidth="1"/>
+    <col min="7" max="7" width="62.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="F2" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="C2" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="D2" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="E2" s="20" t="s">
+      <c r="G2" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="F2" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="G2" s="20" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="26" t="s">
-        <v>69</v>
-      </c>
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
+    </row>
+    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1539,52 +1539,52 @@
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="89.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="69.77734375" customWidth="1"/>
-    <col min="3" max="3" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="48.5546875" customWidth="1"/>
-    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="89.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="69.7109375" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="48.5703125" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="D2" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="E2" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="F2" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="G2" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="F2" s="20" t="s">
+      <c r="H2" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="G2" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="H2" s="20" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
@@ -1601,55 +1601,55 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="76.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="76.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="68.5546875" customWidth="1"/>
-    <col min="6" max="6" width="60.77734375" customWidth="1"/>
-    <col min="7" max="7" width="58.21875" customWidth="1"/>
+    <col min="4" max="4" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="68.5703125" customWidth="1"/>
+    <col min="6" max="6" width="60.7109375" customWidth="1"/>
+    <col min="7" max="7" width="58.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="F2" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="C2" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="D2" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="E2" s="20" t="s">
+      <c r="G2" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="F2" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="G2" s="20" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="26" t="s">
-        <v>71</v>
-      </c>
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
+    </row>
+    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1665,52 +1665,52 @@
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="89.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="53.88671875" customWidth="1"/>
-    <col min="3" max="3" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="45.77734375" customWidth="1"/>
-    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="89.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="53.85546875" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="45.7109375" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="D2" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="E2" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="F2" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="G2" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="F2" s="20" t="s">
+      <c r="H2" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="G2" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="H2" s="20" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -1727,55 +1727,55 @@
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="76.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="76.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.21875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="60" customWidth="1"/>
-    <col min="6" max="6" width="52.109375" customWidth="1"/>
-    <col min="7" max="7" width="57.109375" customWidth="1"/>
+    <col min="6" max="6" width="52.140625" customWidth="1"/>
+    <col min="7" max="7" width="57.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="F2" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="C2" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="D2" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="E2" s="20" t="s">
+      <c r="G2" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="F2" s="20" t="s">
+    </row>
+    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="G2" s="20" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="26" t="s">
-        <v>47</v>
-      </c>
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1791,55 +1791,55 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="77.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="77.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="60.109375" customWidth="1"/>
-    <col min="6" max="6" width="62.44140625" customWidth="1"/>
-    <col min="7" max="7" width="52.6640625" customWidth="1"/>
+    <col min="4" max="4" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="60.140625" customWidth="1"/>
+    <col min="6" max="6" width="62.42578125" customWidth="1"/>
+    <col min="7" max="7" width="52.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="F2" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="C2" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="D2" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="E2" s="20" t="s">
+      <c r="G2" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="F2" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="G2" s="20" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="26" t="s">
-        <v>73</v>
-      </c>
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
+    </row>
+    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="25" t="s">
+        <v>71</v>
+      </c>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1855,52 +1855,52 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="90.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="66.6640625" customWidth="1"/>
-    <col min="3" max="3" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="42.77734375" customWidth="1"/>
-    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="90.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="66.7109375" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="42.7109375" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="D2" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="E2" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="F2" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="G2" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="F2" s="20" t="s">
+      <c r="H2" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="G2" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="H2" s="20" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -1917,52 +1917,52 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="89.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="67.44140625" customWidth="1"/>
-    <col min="3" max="3" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="55.33203125" customWidth="1"/>
-    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="89.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="67.42578125" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="55.28515625" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="D2" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="E2" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="F2" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="G2" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="F2" s="20" t="s">
+      <c r="H2" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="G2" s="20" t="s">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>54</v>
-      </c>
-      <c r="H2" s="20" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -1979,55 +1979,55 @@
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="76.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="76.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="61.6640625" customWidth="1"/>
-    <col min="6" max="6" width="58.77734375" customWidth="1"/>
-    <col min="7" max="7" width="53.33203125" customWidth="1"/>
+    <col min="4" max="4" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="61.7109375" customWidth="1"/>
+    <col min="6" max="6" width="58.7109375" customWidth="1"/>
+    <col min="7" max="7" width="53.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="F2" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="C2" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="D2" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="E2" s="20" t="s">
+      <c r="G2" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="F2" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="G2" s="20" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="26" t="s">
-        <v>57</v>
-      </c>
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
+    </row>
+    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2043,52 +2043,52 @@
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="89.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="68.77734375" customWidth="1"/>
-    <col min="3" max="3" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="52.33203125" customWidth="1"/>
-    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="89.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="68.7109375" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="52.28515625" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="D2" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="E2" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="F2" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="G2" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="F2" s="20" t="s">
+      <c r="H2" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="G2" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="H2" s="20" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -2105,55 +2105,55 @@
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="76.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="76.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="65.77734375" customWidth="1"/>
-    <col min="6" max="6" width="63.6640625" customWidth="1"/>
-    <col min="7" max="7" width="65.44140625" customWidth="1"/>
+    <col min="4" max="4" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="65.7109375" customWidth="1"/>
+    <col min="6" max="6" width="63.7109375" customWidth="1"/>
+    <col min="7" max="7" width="65.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="F2" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="C2" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="D2" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="E2" s="20" t="s">
+      <c r="G2" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="F2" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="G2" s="20" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="26" t="s">
-        <v>59</v>
-      </c>
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
+    </row>
+    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2169,52 +2169,52 @@
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="89.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="70.33203125" customWidth="1"/>
-    <col min="3" max="3" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.21875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="89.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="70.28515625" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="49" customWidth="1"/>
-    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="D2" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="E2" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="F2" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="G2" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="F2" s="20" t="s">
+      <c r="H2" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="G2" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="H2" s="20" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -2231,55 +2231,55 @@
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="76.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="76.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="65.6640625" customWidth="1"/>
-    <col min="6" max="6" width="50.6640625" customWidth="1"/>
-    <col min="7" max="7" width="56.33203125" customWidth="1"/>
+    <col min="4" max="4" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="65.7109375" customWidth="1"/>
+    <col min="6" max="6" width="50.7109375" customWidth="1"/>
+    <col min="7" max="7" width="56.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="F2" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="C2" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="D2" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="E2" s="20" t="s">
+      <c r="G2" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="F2" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="G2" s="20" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="26" t="s">
-        <v>61</v>
-      </c>
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
+    </row>
+    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2295,52 +2295,52 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="89.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="89.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="63" customWidth="1"/>
-    <col min="3" max="3" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="47" customWidth="1"/>
-    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="D2" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="E2" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="F2" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="G2" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="F2" s="20" t="s">
+      <c r="H2" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="G2" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="H2" s="20" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/CastReporting.Reporting.Core/Templates/Application/Compliance reports/OWASP-2013 Full Detailed Report.xlsx
+++ b/CastReporting.Reporting.Core/Templates/Application/Compliance reports/OWASP-2013 Full Detailed Report.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25028"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_Dev\ReportGenerator\CAST-ReportGenerator\CastReporting.Reporting.Core\Templates\Application\Compliance reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78A530DA-8985-4CDF-8B34-27B704321833}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DE284EE-FFE5-4540-B955-A1E78DCF5241}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="6" r:id="rId1"/>
@@ -194,9 +194,6 @@
     <t>Remediation</t>
   </si>
   <si>
-    <t>RepGen:TABLE;RULES_LIST_STATISTICS_RATIO;METRICS=A1-2013,DESC=true,HEADER=NO</t>
-  </si>
-  <si>
     <t>Rule Name</t>
   </si>
   <si>
@@ -224,67 +221,70 @@
     <t>RepGen:TABLE;LIST_RULES_VIOLATIONS_BOOKMARKS_TABLE;METRICS=A1-2013,COUNT=-1,HEADER=NO</t>
   </si>
   <si>
-    <t>RepGen:TABLE;RULES_LIST_STATISTICS_RATIO;METRICS=A2-2013,DESC=true,HEADER=NO</t>
-  </si>
-  <si>
     <t>RepGen:TABLE;LIST_RULES_VIOLATIONS_BOOKMARKS_TABLE;METRICS=A2-2013,COUNT=-1,HEADER=NO</t>
   </si>
   <si>
-    <t>RepGen:TABLE;RULES_LIST_STATISTICS_RATIO;METRICS=A3-2013,DESC=true,HEADER=NO</t>
-  </si>
-  <si>
     <t>RepGen:TABLE;LIST_RULES_VIOLATIONS_BOOKMARKS_TABLE;METRICS=A3-2013,COUNT=-1,HEADER=NO</t>
   </si>
   <si>
-    <t>RepGen:TABLE;RULES_LIST_STATISTICS_RATIO;METRICS=A4-2013,DESC=true,HEADER=NO</t>
-  </si>
-  <si>
     <t>RepGen:TABLE;LIST_RULES_VIOLATIONS_BOOKMARKS_TABLE;METRICS=A4-2013,COUNT=-1,HEADER=NO</t>
   </si>
   <si>
-    <t>RepGen:TABLE;RULES_LIST_STATISTICS_RATIO;METRICS=A5-2013,DESC=true,HEADER=NO</t>
-  </si>
-  <si>
     <t>RepGen:TABLE;LIST_RULES_VIOLATIONS_BOOKMARKS_TABLE;METRICS=A5-2013,COUNT=-1,HEADER=NO</t>
   </si>
   <si>
-    <t>RepGen:TABLE;RULES_LIST_STATISTICS_RATIO;METRICS=A6-2013,DESC=true,HEADER=NO</t>
-  </si>
-  <si>
     <t>RepGen:TABLE;LIST_RULES_VIOLATIONS_BOOKMARKS_TABLE;METRICS=A6-2013,COUNT=-1,HEADER=NO</t>
   </si>
   <si>
-    <t>RepGen:TABLE;RULES_LIST_STATISTICS_RATIO;METRICS=A7-2013,DESC=true,HEADER=NO</t>
-  </si>
-  <si>
     <t>RepGen:TABLE;LIST_RULES_VIOLATIONS_BOOKMARKS_TABLE;METRICS=A7-2013,COUNT=-1,HEADER=NO</t>
   </si>
   <si>
-    <t>RepGen:TABLE;RULES_LIST_STATISTICS_RATIO;METRICS=A8-2013,DESC=true,HEADER=NO</t>
-  </si>
-  <si>
     <t>RepGen:TABLE;LIST_RULES_VIOLATIONS_BOOKMARKS_TABLE;METRICS=A8-2013,COUNT=-1,HEADER=NO</t>
   </si>
   <si>
-    <t>RepGen:TABLE;RULES_LIST_STATISTICS_RATIO;METRICS=A9-2013,DESC=true,HEADER=NO</t>
-  </si>
-  <si>
     <t>RepGen:TABLE;LIST_RULES_VIOLATIONS_BOOKMARKS_TABLE;METRICS=A9-2013,COUNT=-1,HEADER=NO</t>
   </si>
   <si>
-    <t>RepGen:TABLE;RULES_LIST_STATISTICS_RATIO;METRICS=A10-2013,DESC=true,HEADER=NO</t>
-  </si>
-  <si>
     <t>RepGen:TABLE;LIST_RULES_VIOLATIONS_BOOKMARKS_TABLE;METRICS=A10-2013,COUNT=-1,HEADER=NO</t>
   </si>
   <si>
-    <t>RepGen:TABLE;QUALITY_STANDARDS_EVOLUTION;STD=OWASP-2013,HEADER=NO</t>
-  </si>
-  <si>
     <t>ISO Technical Debt:</t>
   </si>
   <si>
     <t>RepGen:TEXT;OMG_TECHNICAL_DEBT</t>
+  </si>
+  <si>
+    <t>RepGen:TABLE;QUALITY_STANDARDS_EVOLUTION;STD=OWASP-2013,HEADER=NO,EVOLUTION=true</t>
+  </si>
+  <si>
+    <t>RepGen:TABLE;RULES_LIST_STATISTICS_RATIO;METRICS=A1-2013,DESC=true,HEADER=NO,EVOLUTION=true</t>
+  </si>
+  <si>
+    <t>RepGen:TABLE;RULES_LIST_STATISTICS_RATIO;METRICS=A2-2013,DESC=true,HEADER=NO,EVOLUTION=true</t>
+  </si>
+  <si>
+    <t>RepGen:TABLE;RULES_LIST_STATISTICS_RATIO;METRICS=A3-2013,DESC=true,HEADER=NO,EVOLUTION=true</t>
+  </si>
+  <si>
+    <t>RepGen:TABLE;RULES_LIST_STATISTICS_RATIO;METRICS=A4-2013,DESC=true,HEADER=NO,EVOLUTION=true</t>
+  </si>
+  <si>
+    <t>RepGen:TABLE;RULES_LIST_STATISTICS_RATIO;METRICS=A5-2013,DESC=true,HEADER=NO,EVOLUTION=true</t>
+  </si>
+  <si>
+    <t>RepGen:TABLE;RULES_LIST_STATISTICS_RATIO;METRICS=A6-2013,DESC=true,HEADER=NO,EVOLUTION=true</t>
+  </si>
+  <si>
+    <t>RepGen:TABLE;RULES_LIST_STATISTICS_RATIO;METRICS=A7-2013,DESC=true,HEADER=NO,EVOLUTION=true</t>
+  </si>
+  <si>
+    <t>RepGen:TABLE;RULES_LIST_STATISTICS_RATIO;METRICS=A8-2013,DESC=true,HEADER=NO,EVOLUTION=true</t>
+  </si>
+  <si>
+    <t>RepGen:TABLE;RULES_LIST_STATISTICS_RATIO;METRICS=A9-2013,DESC=true,HEADER=NO,EVOLUTION=true</t>
+  </si>
+  <si>
+    <t>RepGen:TABLE;RULES_LIST_STATISTICS_RATIO;METRICS=A10-2013,DESC=true,HEADER=NO,EVOLUTION=true</t>
   </si>
 </sst>
 </file>
@@ -945,26 +945,26 @@
   <dimension ref="B1:O15"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6.5703125" customWidth="1"/>
-    <col min="2" max="2" width="75.28515625" customWidth="1"/>
+    <col min="1" max="1" width="6.5546875" customWidth="1"/>
+    <col min="2" max="2" width="75.33203125" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="4" width="17.28515625" customWidth="1"/>
+    <col min="4" max="4" width="17.33203125" customWidth="1"/>
     <col min="5" max="5" width="15" customWidth="1"/>
-    <col min="6" max="6" width="19.85546875" customWidth="1"/>
-    <col min="7" max="7" width="19.42578125" customWidth="1"/>
-    <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.5703125" customWidth="1"/>
-    <col min="12" max="12" width="14.28515625" customWidth="1"/>
-    <col min="13" max="13" width="36.7109375" customWidth="1"/>
-    <col min="14" max="14" width="12.85546875" customWidth="1"/>
+    <col min="6" max="6" width="19.88671875" customWidth="1"/>
+    <col min="7" max="7" width="19.44140625" customWidth="1"/>
+    <col min="8" max="8" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.5546875" customWidth="1"/>
+    <col min="12" max="12" width="14.33203125" customWidth="1"/>
+    <col min="13" max="13" width="36.6640625" customWidth="1"/>
+    <col min="14" max="14" width="12.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
@@ -974,7 +974,7 @@
       <c r="F1" s="27"/>
       <c r="G1" s="27"/>
     </row>
-    <row r="2" spans="2:15" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:15" ht="23.4" x14ac:dyDescent="0.3">
       <c r="B2" s="5" t="s">
         <v>9</v>
       </c>
@@ -984,7 +984,7 @@
       <c r="F2" s="2"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B3" s="21" t="s">
         <v>0</v>
       </c>
@@ -1000,7 +1000,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:15" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:15" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B4" s="22" t="s">
         <v>1</v>
       </c>
@@ -1010,16 +1010,16 @@
       <c r="D4" s="4"/>
       <c r="E4" s="13"/>
       <c r="F4" s="7" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="5" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G5" s="14"/>
     </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B6" s="18" t="s">
         <v>8</v>
       </c>
@@ -1030,13 +1030,13 @@
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:15" x14ac:dyDescent="0.3">
       <c r="C7" t="s">
         <v>33</v>
       </c>
       <c r="D7" s="23"/>
     </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:15" x14ac:dyDescent="0.3">
       <c r="C8" s="18" t="s">
         <v>34</v>
       </c>
@@ -1044,7 +1044,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:15" x14ac:dyDescent="0.3">
       <c r="C9" t="s">
         <v>36</v>
       </c>
@@ -1052,12 +1052,12 @@
       <c r="N9" s="17"/>
       <c r="O9" s="16"/>
     </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B13" s="19" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="2:15" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:15" ht="22.8" x14ac:dyDescent="0.3">
       <c r="B14" s="19" t="s">
         <v>37</v>
       </c>
@@ -1071,9 +1071,9 @@
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:15" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C15" s="23"/>
       <c r="D15" s="23"/>
@@ -1094,26 +1094,26 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A14" sqref="A13:A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="76.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="76.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="68.7109375" customWidth="1"/>
-    <col min="6" max="6" width="60.7109375" customWidth="1"/>
+    <col min="4" max="4" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="68.6640625" customWidth="1"/>
+    <col min="6" max="6" width="60.6640625" customWidth="1"/>
     <col min="7" max="7" width="71" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="20" t="s">
         <v>41</v>
       </c>
@@ -1136,9 +1136,9 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="25" t="s">
-        <v>61</v>
+        <v>70</v>
       </c>
       <c r="B3" s="26"/>
       <c r="C3" s="26"/>
@@ -1161,52 +1161,52 @@
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="89.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45.28515625" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="53.42578125" customWidth="1"/>
-    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="89.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.33203125" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="53.44140625" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="C2" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="D2" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="E2" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="F2" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="F2" s="20" t="s">
+      <c r="G2" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="G2" s="20" t="s">
+      <c r="H2" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="H2" s="20" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -1220,26 +1220,26 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="A8" sqref="A7:A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="76.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="76.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="67.42578125" customWidth="1"/>
-    <col min="6" max="6" width="65.42578125" customWidth="1"/>
+    <col min="4" max="4" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="67.44140625" customWidth="1"/>
+    <col min="6" max="6" width="65.44140625" customWidth="1"/>
     <col min="7" max="7" width="69" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="20" t="s">
         <v>41</v>
       </c>
@@ -1262,9 +1262,9 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="25" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="B3" s="26"/>
       <c r="C3" s="26"/>
@@ -1287,52 +1287,52 @@
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="89.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="64.7109375" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="54.5703125" customWidth="1"/>
-    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="89.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="64.6640625" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="54.5546875" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="C2" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="D2" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="E2" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="F2" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="F2" s="20" t="s">
+      <c r="G2" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="G2" s="20" t="s">
+      <c r="H2" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="H2" s="20" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
@@ -1346,26 +1346,26 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="A4" sqref="A3:A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="76.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="76.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="74.28515625" customWidth="1"/>
-    <col min="6" max="6" width="64.140625" customWidth="1"/>
-    <col min="7" max="7" width="56.28515625" customWidth="1"/>
+    <col min="4" max="4" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="74.33203125" customWidth="1"/>
+    <col min="6" max="6" width="64.109375" customWidth="1"/>
+    <col min="7" max="7" width="56.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="20" t="s">
         <v>41</v>
       </c>
@@ -1388,9 +1388,9 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="25" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="B3" s="26"/>
       <c r="C3" s="26"/>
@@ -1410,55 +1410,55 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="89.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="60.85546875" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="89.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="60.88671875" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="41" customWidth="1"/>
-    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="C2" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="D2" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="E2" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="F2" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="F2" s="20" t="s">
+      <c r="G2" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="G2" s="20" t="s">
+      <c r="H2" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="H2" s="20" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -1472,26 +1472,26 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="76.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="76.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="69" customWidth="1"/>
-    <col min="6" max="6" width="62.140625" customWidth="1"/>
-    <col min="7" max="7" width="62.42578125" customWidth="1"/>
+    <col min="6" max="6" width="62.109375" customWidth="1"/>
+    <col min="7" max="7" width="62.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="20" t="s">
         <v>41</v>
       </c>
@@ -1514,9 +1514,9 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="25" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="B3" s="26"/>
       <c r="C3" s="26"/>
@@ -1539,52 +1539,52 @@
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="89.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="69.7109375" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="48.5703125" customWidth="1"/>
-    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="89.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="69.6640625" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="48.5546875" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="C2" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="D2" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="E2" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="F2" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="F2" s="20" t="s">
+      <c r="G2" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="G2" s="20" t="s">
+      <c r="H2" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="H2" s="20" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -1598,26 +1598,26 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A9" sqref="A8:A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="76.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="76.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="68.5703125" customWidth="1"/>
-    <col min="6" max="6" width="60.7109375" customWidth="1"/>
-    <col min="7" max="7" width="58.28515625" customWidth="1"/>
+    <col min="4" max="4" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="68.5546875" customWidth="1"/>
+    <col min="6" max="6" width="60.6640625" customWidth="1"/>
+    <col min="7" max="7" width="58.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="20" t="s">
         <v>41</v>
       </c>
@@ -1640,9 +1640,9 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="25" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B3" s="26"/>
       <c r="C3" s="26"/>
@@ -1665,52 +1665,52 @@
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="89.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="53.85546875" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="45.7109375" customWidth="1"/>
-    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="89.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="53.88671875" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="45.6640625" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="C2" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="D2" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="E2" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="F2" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="F2" s="20" t="s">
+      <c r="G2" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="G2" s="20" t="s">
+      <c r="H2" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="H2" s="20" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -1724,26 +1724,26 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="76.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="76.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="60" customWidth="1"/>
-    <col min="6" max="6" width="52.140625" customWidth="1"/>
-    <col min="7" max="7" width="57.140625" customWidth="1"/>
+    <col min="6" max="6" width="52.109375" customWidth="1"/>
+    <col min="7" max="7" width="57.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="20" t="s">
         <v>41</v>
       </c>
@@ -1766,9 +1766,9 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="25" t="s">
-        <v>45</v>
+        <v>66</v>
       </c>
       <c r="B3" s="26"/>
       <c r="C3" s="26"/>
@@ -1788,26 +1788,26 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A5" sqref="A4:A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="77.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="77.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="60.140625" customWidth="1"/>
-    <col min="6" max="6" width="62.42578125" customWidth="1"/>
-    <col min="7" max="7" width="52.7109375" customWidth="1"/>
+    <col min="4" max="4" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="60.109375" customWidth="1"/>
+    <col min="6" max="6" width="62.44140625" customWidth="1"/>
+    <col min="7" max="7" width="52.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="20" t="s">
         <v>41</v>
       </c>
@@ -1830,9 +1830,9 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="25" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B3" s="26"/>
       <c r="C3" s="26"/>
@@ -1855,52 +1855,52 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="90.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="66.7109375" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="42.7109375" customWidth="1"/>
-    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="90.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="66.6640625" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="42.6640625" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="C2" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="D2" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="E2" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="F2" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="F2" s="20" t="s">
+      <c r="G2" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="G2" s="20" t="s">
+      <c r="H2" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="H2" s="20" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -1917,52 +1917,52 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="89.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="67.42578125" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="55.28515625" customWidth="1"/>
-    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="89.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="67.44140625" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="55.33203125" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="C2" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="D2" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="E2" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="F2" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="F2" s="20" t="s">
+      <c r="G2" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="G2" s="20" t="s">
+      <c r="H2" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="H2" s="20" t="s">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>53</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -1976,26 +1976,26 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="76.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="76.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="61.7109375" customWidth="1"/>
-    <col min="6" max="6" width="58.7109375" customWidth="1"/>
-    <col min="7" max="7" width="53.28515625" customWidth="1"/>
+    <col min="4" max="4" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="61.6640625" customWidth="1"/>
+    <col min="6" max="6" width="58.6640625" customWidth="1"/>
+    <col min="7" max="7" width="53.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="20" t="s">
         <v>41</v>
       </c>
@@ -2018,9 +2018,9 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="25" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="B3" s="26"/>
       <c r="C3" s="26"/>
@@ -2043,52 +2043,52 @@
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="89.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="68.7109375" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="52.28515625" customWidth="1"/>
-    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="89.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="68.6640625" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="52.33203125" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="C2" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="D2" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="E2" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="F2" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="F2" s="20" t="s">
+      <c r="G2" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="G2" s="20" t="s">
+      <c r="H2" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="H2" s="20" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -2102,26 +2102,26 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="76.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="76.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="65.7109375" customWidth="1"/>
-    <col min="6" max="6" width="63.7109375" customWidth="1"/>
-    <col min="7" max="7" width="65.42578125" customWidth="1"/>
+    <col min="4" max="4" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="65.6640625" customWidth="1"/>
+    <col min="6" max="6" width="63.6640625" customWidth="1"/>
+    <col min="7" max="7" width="65.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="20" t="s">
         <v>41</v>
       </c>
@@ -2144,9 +2144,9 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="25" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="B3" s="26"/>
       <c r="C3" s="26"/>
@@ -2169,52 +2169,52 @@
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="89.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="70.28515625" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="89.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="70.33203125" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="49" customWidth="1"/>
-    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="C2" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="D2" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="E2" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="F2" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="F2" s="20" t="s">
+      <c r="G2" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="G2" s="20" t="s">
+      <c r="H2" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="H2" s="20" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -2228,26 +2228,26 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="A10" sqref="A9:A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="76.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="76.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="65.7109375" customWidth="1"/>
-    <col min="6" max="6" width="50.7109375" customWidth="1"/>
-    <col min="7" max="7" width="56.28515625" customWidth="1"/>
+    <col min="4" max="4" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="65.6640625" customWidth="1"/>
+    <col min="6" max="6" width="50.6640625" customWidth="1"/>
+    <col min="7" max="7" width="56.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="20" t="s">
         <v>41</v>
       </c>
@@ -2270,9 +2270,9 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="25" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="B3" s="26"/>
       <c r="C3" s="26"/>
@@ -2292,55 +2292,55 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="89.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="89.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="63" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.33203125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="47" customWidth="1"/>
-    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="C2" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="C2" s="20" t="s">
+      <c r="D2" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="E2" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="E2" s="20" t="s">
+      <c r="F2" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="F2" s="20" t="s">
+      <c r="G2" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="G2" s="20" t="s">
+      <c r="H2" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="H2" s="20" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/CastReporting.Reporting.Core/Templates/Application/Compliance reports/OWASP-2013 Full Detailed Report.xlsx
+++ b/CastReporting.Reporting.Core/Templates/Application/Compliance reports/OWASP-2013 Full Detailed Report.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28429"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_Dev\ReportGenerator\CAST-ReportGenerator\CastReporting.Reporting.Core\Templates\Application\Compliance reports\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PJG\cast-repos\report-gen\CAST-ReportGenerator\CastReporting.Reporting.Core\Templates\Application\Compliance reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DE284EE-FFE5-4540-B955-A1E78DCF5241}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FDB1BCA-CB4F-49AE-8CC5-0270A74C6A24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="6" r:id="rId1"/>
@@ -37,11 +37,11 @@
   </sheets>
   <definedNames>
     <definedName name="AFP_LIST_TOTAL" comment="TABLE;AFP;TYPE=TOTAL" localSheetId="0">Summary!#REF!</definedName>
-    <definedName name="Application_Size" comment="TEXT;APPLICATION_SIZE_TYPE" localSheetId="0">Summary!$G$3</definedName>
+    <definedName name="Application_Size" comment="TEXT;APPLICATION_SIZE_TYPE" localSheetId="0">Summary!$G$4</definedName>
     <definedName name="EmpVersion" comment="TEXT;EMP_VERSION" localSheetId="0">Summary!$E$1</definedName>
-    <definedName name="TABLE_1" comment="TEXT;APPLICATION_NAME" localSheetId="0">Summary!$D$3:$D$3</definedName>
-    <definedName name="TABLE_3" comment="TEXT;METRIC_TECHNICAL_DEBT" localSheetId="0">Summary!$G$4</definedName>
-    <definedName name="TABLE_4" comment="TEXT;LAST_SNAPSHOT_DATE" localSheetId="0">Summary!$D$4:$D$4</definedName>
+    <definedName name="TABLE_1" comment="TEXT;APPLICATION_NAME" localSheetId="0">Summary!$D$4:$D$4</definedName>
+    <definedName name="TABLE_3" comment="TEXT;METRIC_TECHNICAL_DEBT" localSheetId="0">Summary!$G$5</definedName>
+    <definedName name="TABLE_4" comment="TEXT;LAST_SNAPSHOT_DATE" localSheetId="0">Summary!$D$5:$D$5</definedName>
     <definedName name="TABLE_5" comment="TEXT;TODAY_DATE" localSheetId="0">Summary!$F$1:$G$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -491,7 +491,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -515,16 +515,16 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -534,10 +534,10 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -562,6 +562,18 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
@@ -602,52 +614,50 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>692727</xdr:colOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1255569</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>55418</xdr:rowOff>
+      <xdr:rowOff>17318</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>1291071</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>245918</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>950729</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>82909</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 7" descr="CAST_white_90">
+        <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1955233F-00CA-4A5B-9B4C-03A60B5EE52B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
-        <a:srcRect/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
+      <xdr:spPr>
         <a:xfrm>
-          <a:off x="3870613" y="254577"/>
-          <a:ext cx="1601066" cy="190500"/>
+          <a:off x="10079183" y="216477"/>
+          <a:ext cx="1020001" cy="360000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:noFill/>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -942,39 +952,39 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:O15"/>
+  <dimension ref="B1:O16"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.5546875" customWidth="1"/>
-    <col min="2" max="2" width="75.33203125" customWidth="1"/>
+    <col min="1" max="1" width="6.5703125" customWidth="1"/>
+    <col min="2" max="2" width="75.28515625" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="4" width="17.33203125" customWidth="1"/>
+    <col min="4" max="4" width="17.28515625" customWidth="1"/>
     <col min="5" max="5" width="15" customWidth="1"/>
-    <col min="6" max="6" width="19.88671875" customWidth="1"/>
-    <col min="7" max="7" width="19.44140625" customWidth="1"/>
-    <col min="8" max="8" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.5546875" customWidth="1"/>
-    <col min="12" max="12" width="14.33203125" customWidth="1"/>
-    <col min="13" max="13" width="36.6640625" customWidth="1"/>
-    <col min="14" max="14" width="12.88671875" customWidth="1"/>
+    <col min="6" max="6" width="19.85546875" customWidth="1"/>
+    <col min="7" max="7" width="19.42578125" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.5703125" customWidth="1"/>
+    <col min="12" max="12" width="14.28515625" customWidth="1"/>
+    <col min="13" max="13" width="36.7109375" customWidth="1"/>
+    <col min="14" max="14" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-    </row>
-    <row r="2" spans="2:15" ht="23.4" x14ac:dyDescent="0.3">
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+    </row>
+    <row r="2" spans="2:15" ht="23.25" x14ac:dyDescent="0.25">
       <c r="B2" s="5" t="s">
         <v>9</v>
       </c>
@@ -984,100 +994,108 @@
       <c r="F2" s="2"/>
       <c r="G2" s="1"/>
     </row>
-    <row r="3" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="21" t="s">
+    <row r="3" spans="2:15" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="27"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="30"/>
+    </row>
+    <row r="4" spans="2:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C4" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="11"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="9" t="s">
+      <c r="D4" s="11"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="15" t="s">
+      <c r="G4" s="15" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:15" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="22" t="s">
+    <row r="5" spans="2:15" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="4"/>
-      <c r="E4" s="13"/>
-      <c r="F4" s="7" t="s">
+      <c r="D5" s="4"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="G5" s="10" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="5" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="G5" s="14"/>
-    </row>
-    <row r="6" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B6" s="18" t="s">
+    <row r="6" spans="2:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G6" s="14"/>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B7" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="C7" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="D6" s="18" t="s">
+      <c r="D7" s="18" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="C7" t="s">
+    <row r="8" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C8" t="s">
         <v>33</v>
       </c>
-      <c r="D7" s="23"/>
-    </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="C8" s="18" t="s">
+      <c r="D8" s="23"/>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C9" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="D8" s="18" t="s">
+      <c r="D9" s="18" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="C9" t="s">
+    <row r="10" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
         <v>36</v>
       </c>
-      <c r="D9" s="23"/>
-      <c r="N9" s="17"/>
-      <c r="O9" s="16"/>
-    </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B13" s="19" t="s">
+      <c r="D10" s="23"/>
+      <c r="N10" s="17"/>
+      <c r="O10" s="16"/>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B14" s="19" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="2:15" ht="22.8" x14ac:dyDescent="0.3">
-      <c r="B14" s="19" t="s">
+    <row r="15" spans="2:15" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="B15" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="24" t="s">
+      <c r="C15" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="D14" s="24" t="s">
+      <c r="D15" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="E14" s="24" t="s">
+      <c r="E15" s="24" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B15" t="s">
+    <row r="16" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
         <v>65</v>
       </c>
-      <c r="C15" s="23"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="23"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1097,23 +1115,23 @@
       <selection activeCell="A14" sqref="A13:A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="76.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="76.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="68.6640625" customWidth="1"/>
-    <col min="6" max="6" width="60.6640625" customWidth="1"/>
+    <col min="4" max="4" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="68.7109375" customWidth="1"/>
+    <col min="6" max="6" width="60.7109375" customWidth="1"/>
     <col min="7" max="7" width="71" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
         <v>41</v>
       </c>
@@ -1136,7 +1154,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="25" t="s">
         <v>70</v>
       </c>
@@ -1161,24 +1179,24 @@
       <selection activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="89.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="45.33203125" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="53.44140625" customWidth="1"/>
-    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="89.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="45.28515625" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="53.42578125" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
         <v>45</v>
       </c>
@@ -1204,7 +1222,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>57</v>
       </c>
@@ -1223,23 +1241,23 @@
       <selection activeCell="A8" sqref="A7:A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="76.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="76.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="67.44140625" customWidth="1"/>
-    <col min="6" max="6" width="65.44140625" customWidth="1"/>
+    <col min="4" max="4" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="67.42578125" customWidth="1"/>
+    <col min="6" max="6" width="65.42578125" customWidth="1"/>
     <col min="7" max="7" width="69" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
         <v>41</v>
       </c>
@@ -1262,7 +1280,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="25" t="s">
         <v>71</v>
       </c>
@@ -1287,24 +1305,24 @@
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="89.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="64.6640625" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="54.5546875" customWidth="1"/>
-    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="89.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="64.7109375" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="54.5703125" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
         <v>45</v>
       </c>
@@ -1330,7 +1348,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>58</v>
       </c>
@@ -1349,23 +1367,23 @@
       <selection activeCell="A4" sqref="A3:A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="76.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="76.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="74.33203125" customWidth="1"/>
-    <col min="6" max="6" width="64.109375" customWidth="1"/>
-    <col min="7" max="7" width="56.33203125" customWidth="1"/>
+    <col min="4" max="4" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="74.28515625" customWidth="1"/>
+    <col min="6" max="6" width="64.140625" customWidth="1"/>
+    <col min="7" max="7" width="56.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
         <v>41</v>
       </c>
@@ -1388,7 +1406,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="25" t="s">
         <v>72</v>
       </c>
@@ -1413,24 +1431,24 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="89.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="60.88671875" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="89.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="60.85546875" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="41" customWidth="1"/>
-    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
         <v>45</v>
       </c>
@@ -1456,7 +1474,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>59</v>
       </c>
@@ -1475,23 +1493,23 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="76.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="76.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="69" customWidth="1"/>
-    <col min="6" max="6" width="62.109375" customWidth="1"/>
-    <col min="7" max="7" width="62.44140625" customWidth="1"/>
+    <col min="6" max="6" width="62.140625" customWidth="1"/>
+    <col min="7" max="7" width="62.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
         <v>41</v>
       </c>
@@ -1514,7 +1532,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="25" t="s">
         <v>73</v>
       </c>
@@ -1539,24 +1557,24 @@
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="89.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="69.6640625" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="48.5546875" customWidth="1"/>
-    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="89.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="69.7109375" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="48.5703125" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
         <v>45</v>
       </c>
@@ -1582,7 +1600,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>60</v>
       </c>
@@ -1601,23 +1619,23 @@
       <selection activeCell="A9" sqref="A8:A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="76.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="76.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="68.5546875" customWidth="1"/>
-    <col min="6" max="6" width="60.6640625" customWidth="1"/>
-    <col min="7" max="7" width="58.33203125" customWidth="1"/>
+    <col min="4" max="4" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="68.5703125" customWidth="1"/>
+    <col min="6" max="6" width="60.7109375" customWidth="1"/>
+    <col min="7" max="7" width="58.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
         <v>41</v>
       </c>
@@ -1640,7 +1658,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="25" t="s">
         <v>74</v>
       </c>
@@ -1665,24 +1683,24 @@
       <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="89.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="53.88671875" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="45.6640625" customWidth="1"/>
-    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="89.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="53.85546875" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="45.7109375" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
         <v>45</v>
       </c>
@@ -1708,7 +1726,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>61</v>
       </c>
@@ -1727,23 +1745,23 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="76.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="76.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="60" customWidth="1"/>
-    <col min="6" max="6" width="52.109375" customWidth="1"/>
-    <col min="7" max="7" width="57.109375" customWidth="1"/>
+    <col min="6" max="6" width="52.140625" customWidth="1"/>
+    <col min="7" max="7" width="57.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
         <v>41</v>
       </c>
@@ -1766,7 +1784,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="25" t="s">
         <v>66</v>
       </c>
@@ -1791,23 +1809,23 @@
       <selection activeCell="A5" sqref="A4:A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="77.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="77.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="60.109375" customWidth="1"/>
-    <col min="6" max="6" width="62.44140625" customWidth="1"/>
-    <col min="7" max="7" width="52.6640625" customWidth="1"/>
+    <col min="4" max="4" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="60.140625" customWidth="1"/>
+    <col min="6" max="6" width="62.42578125" customWidth="1"/>
+    <col min="7" max="7" width="52.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
         <v>41</v>
       </c>
@@ -1830,7 +1848,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="25" t="s">
         <v>75</v>
       </c>
@@ -1855,24 +1873,24 @@
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="90.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="66.6640625" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="42.6640625" customWidth="1"/>
-    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="90.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="66.7109375" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="42.7109375" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
         <v>45</v>
       </c>
@@ -1898,7 +1916,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>62</v>
       </c>
@@ -1917,24 +1935,24 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="89.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="67.44140625" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="55.33203125" customWidth="1"/>
-    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="89.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="67.42578125" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="55.28515625" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
         <v>45</v>
       </c>
@@ -1960,7 +1978,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>53</v>
       </c>
@@ -1979,23 +1997,23 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="76.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="76.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="61.6640625" customWidth="1"/>
-    <col min="6" max="6" width="58.6640625" customWidth="1"/>
-    <col min="7" max="7" width="53.33203125" customWidth="1"/>
+    <col min="4" max="4" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="61.7109375" customWidth="1"/>
+    <col min="6" max="6" width="58.7109375" customWidth="1"/>
+    <col min="7" max="7" width="53.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
         <v>41</v>
       </c>
@@ -2018,7 +2036,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="25" t="s">
         <v>67</v>
       </c>
@@ -2043,24 +2061,24 @@
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="89.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="68.6640625" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="52.33203125" customWidth="1"/>
-    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="89.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="68.7109375" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="52.28515625" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
         <v>45</v>
       </c>
@@ -2086,7 +2104,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>54</v>
       </c>
@@ -2105,23 +2123,23 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="76.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="76.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="65.6640625" customWidth="1"/>
-    <col min="6" max="6" width="63.6640625" customWidth="1"/>
-    <col min="7" max="7" width="65.44140625" customWidth="1"/>
+    <col min="4" max="4" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="65.7109375" customWidth="1"/>
+    <col min="6" max="6" width="63.7109375" customWidth="1"/>
+    <col min="7" max="7" width="65.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
         <v>41</v>
       </c>
@@ -2144,7 +2162,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="25" t="s">
         <v>68</v>
       </c>
@@ -2169,24 +2187,24 @@
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="89.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="70.33203125" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="89.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="70.28515625" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="49" customWidth="1"/>
-    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
         <v>45</v>
       </c>
@@ -2212,7 +2230,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>55</v>
       </c>
@@ -2231,23 +2249,23 @@
       <selection activeCell="A10" sqref="A9:A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="76.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="76.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="24" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="65.6640625" customWidth="1"/>
-    <col min="6" max="6" width="50.6640625" customWidth="1"/>
-    <col min="7" max="7" width="56.33203125" customWidth="1"/>
+    <col min="4" max="4" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="65.7109375" customWidth="1"/>
+    <col min="6" max="6" width="50.7109375" customWidth="1"/>
+    <col min="7" max="7" width="56.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
         <v>41</v>
       </c>
@@ -2270,7 +2288,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="25" t="s">
         <v>69</v>
       </c>
@@ -2295,24 +2313,24 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="89.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="89.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="63" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="47" customWidth="1"/>
-    <col min="7" max="7" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
         <v>45</v>
       </c>
@@ -2338,7 +2356,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>56</v>
       </c>
